--- a/codigo_database.xlsx
+++ b/codigo_database.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
@@ -1432,6 +1432,23 @@
         </is>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>DES2003</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>04/11/2025 17:08:34</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2103</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/codigo_database.xlsx
+++ b/codigo_database.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
@@ -1449,6 +1449,635 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>DES2004</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>05/11/2025 17:16:28</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>70707070</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>DES2005</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>07/11/2025 14:36:15</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2123</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>DES2006</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>07/11/2025 14:36:49</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2123</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>DES2007</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>07/11/2025 14:37:25</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2123</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>DES2008</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>07/11/2025 15:47:47</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2124</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>DES2009</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>07/11/2025 15:47:53</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2124</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>DES2010</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>07/11/2025 15:47:56</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2124</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>DES2011</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>07/11/2025 15:48:00</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2124</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>DES2012</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>07/11/2025 15:48:08</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2124</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>DES2013</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>07/11/2025 15:48:08</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2124</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>DES2014</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>07/11/2025 15:48:08</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2124</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>DES2015</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>07/11/2025 15:48:08</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2124</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>DES2016</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>07/11/2025 15:48:08</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2124</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>DES2017</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>07/11/2025 15:48:09</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2124</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>DES2018</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>07/11/2025 15:48:09</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2124</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>DES2019</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>07/11/2025 15:48:09</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2124</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>DES2020</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>07/11/2025 15:48:10</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2124</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>DES2021</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>07/11/2025 15:48:10</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2124</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>DES2022</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>10/11/2025 13:43:13</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2126</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>DES2023</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>10/11/2025 13:43:54</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2126</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>DES2024</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>10/11/2025 13:44:36</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2126</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>DES2025</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>10/11/2025 13:57:23</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2127</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>DES2026</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>10/11/2025 14:20:51</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>6767</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>DES2027</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>10/11/2025 14:21:01</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>6767</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>DES2028</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>10/11/2025 15:54:52</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2129</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>DES2029</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>10/11/2025 15:56:53</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2129</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>DES2030</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>10/11/2025 16:06:06</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2129</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>DES2031</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>10/11/2025 16:07:13</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2130</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>DES2032</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>10/11/2025 16:07:33</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2130</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>DES2033</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>10/11/2025 16:15:01</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2131</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>DES2034</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>10/11/2025 16:23:25</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>DES2035</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>10/11/2025 16:28:43</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>DES2036</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>10/11/2025 16:29:45</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>DES2037</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>10/11/2025 16:30:21</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>DES2038</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>10/11/2025 16:30:50</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>DES2039</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>10/11/2025 16:48:41</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>DES2040</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>10/11/2025 16:49:13</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2134_XADREZ</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/codigo_database.xlsx
+++ b/codigo_database.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
@@ -2078,6 +2078,516 @@
         </is>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>DES2041</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>11/11/2025 13:49:24</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2123</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>DES2042</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>11/11/2025 14:56:12</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2123_XADREZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>DES2043</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>11/11/2025 15:32:29</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2145</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>DES2044</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>11/11/2025 15:34:29</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2145</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>DES2045</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>11/11/2025 15:43:08</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2145</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>DES2046</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>11/11/2025 15:46:33</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2146</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>DES2047</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>11/11/2025 16:00:15</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2148</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>DES2048</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>11/11/2025 16:05:27</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2148_XADREZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>DES2049</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>11/11/2025 16:29:43</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2123_XADREZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>DES2050</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>12/11/2025 09:16:43</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2151</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>DES2051</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>12/11/2025 09:17:23</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2151</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>DES2052</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>12/11/2025 09:18:02</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2151</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>DES2053</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>12/11/2025 09:19:46</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2151</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>DES2054</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>12/11/2025 09:21:04</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2151</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>DES2055</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>12/11/2025 09:21:37</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2151</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>DES2056</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>12/11/2025 09:22:58</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2151</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>DES2057</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>12/11/2025 09:25:38</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2151</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>DES2058</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>12/11/2025 09:29:33</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2151</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>DES2059</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>12/11/2025 10:04:34</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2151</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>DES2060</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>12/11/2025 10:06:37</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2151</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>DES2061</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>12/11/2025 10:07:29</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2151</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>DES2062</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>12/11/2025 10:12:47</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2151</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>DES2063</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>12/11/2025 10:12:47</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2151</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>DES2064</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>12/11/2025 10:41:39</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2156</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>DES2065</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>12/11/2025 10:54:09</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2089</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>DES2066</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>12/11/2025 10:54:34</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2089</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>DES2067</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>12/11/2025 11:18:12</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2157</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>DES2068</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>12/11/2025 11:18:29</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2157</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>DES2069</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>12/11/2025 11:18:29</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2157</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>DES2070</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>12/11/2025 11:18:30</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2157</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
